--- a/Outputs/Raymond Paper Method.xlsx
+++ b/Outputs/Raymond Paper Method.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659281F3-51B3-40C2-8932-34A0082844D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0F29F-BA3E-4E37-B574-AD2B58F8E29D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E233504B-0B55-4246-9B4B-72EFC75EC46E}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61FEB14-9CCA-4271-93D5-A81362C983DC}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
     <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,8 +530,12 @@
         <f>C2/B2</f>
         <v>-0.10066327480908546</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f>SUM(B$2:B2)</f>
+        <v>5.1004500000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -545,8 +549,12 @@
         <f t="shared" ref="D3:D35" si="0">C3/B3</f>
         <v>0.24884560490303081</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <f>SUM(B$2:B3)</f>
+        <v>17.01145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -560,8 +568,12 @@
         <f t="shared" si="0"/>
         <v>-1.1793519216277317</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <f>SUM(B$2:B4)</f>
+        <v>19.66545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,8 +587,12 @@
         <f t="shared" si="0"/>
         <v>0.26229508196721313</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f>SUM(B$2:B5)</f>
+        <v>27.59545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -590,8 +606,12 @@
         <f t="shared" si="0"/>
         <v>5.1910828025477709E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f>SUM(B$2:B6)</f>
+        <v>37.015450000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -605,8 +625,12 @@
         <f t="shared" si="0"/>
         <v>3.8104543234000976E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>SUM(B$2:B7)</f>
+        <v>41.109450000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -620,8 +644,12 @@
         <f t="shared" si="0"/>
         <v>0.27751769188894937</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f>SUM(B$2:B8)</f>
+        <v>50.294450000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -635,8 +663,12 @@
         <f t="shared" si="0"/>
         <v>0.17266851338873501</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f>SUM(B$2:B9)</f>
+        <v>61.124450000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -650,8 +682,12 @@
         <f t="shared" si="0"/>
         <v>-0.14884068810770382</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f>SUM(B$2:B10)</f>
+        <v>66.472450000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -665,8 +701,12 @@
         <f t="shared" si="0"/>
         <v>0.2072379651758279</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f>SUM(B$2:B11)</f>
+        <v>75.259450000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -680,8 +720,12 @@
         <f t="shared" si="0"/>
         <v>0.15407703851925961</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(B$2:B12)</f>
+        <v>83.25545000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -695,8 +739,12 @@
         <f t="shared" si="0"/>
         <v>0.34698155394074903</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f>SUM(B$2:B13)</f>
+        <v>90.411450000000016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -710,8 +758,12 @@
         <f t="shared" si="0"/>
         <v>-9.4745366204786741E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f>SUM(B$2:B14)</f>
+        <v>101.52545000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -725,8 +777,12 @@
         <f t="shared" si="0"/>
         <v>-1.2202498356344511</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f>SUM(B$2:B15)</f>
+        <v>104.56745000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -740,8 +796,12 @@
         <f t="shared" si="0"/>
         <v>0.41938787120263965</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f>SUM(B$2:B16)</f>
+        <v>113.35645000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -755,8 +815,12 @@
         <f t="shared" si="0"/>
         <v>0.64762893734856353</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f>SUM(B$2:B17)</f>
+        <v>116.24545000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -770,8 +834,12 @@
         <f t="shared" si="0"/>
         <v>0.43119847812301842</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f>SUM(B$2:B18)</f>
+        <v>120.97645000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -785,8 +853,12 @@
         <f t="shared" si="0"/>
         <v>0.2355652821754517</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f>SUM(B$2:B19)</f>
+        <v>142.45245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -800,8 +872,12 @@
         <f t="shared" si="0"/>
         <v>5.3872053872053877E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f>SUM(B$2:B20)</f>
+        <v>151.06545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -815,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>0.23471278567016676</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f>SUM(B$2:B21)</f>
+        <v>157.54145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -830,8 +910,12 @@
         <f t="shared" si="0"/>
         <v>0.31192818919385462</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f>SUM(B$2:B22)</f>
+        <v>163.33445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -845,8 +929,12 @@
         <f t="shared" si="0"/>
         <v>0.23847965018499831</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f>SUM(B$2:B23)</f>
+        <v>169.28045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -860,8 +948,12 @@
         <f t="shared" si="0"/>
         <v>-7.3017299483262202E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f>SUM(B$2:B24)</f>
+        <v>178.18244999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -875,8 +967,12 @@
         <f t="shared" si="0"/>
         <v>0.13585017835909632</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f>SUM(B$2:B25)</f>
+        <v>181.54644999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -890,8 +986,12 @@
         <f t="shared" si="0"/>
         <v>0.27696871628910458</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f>SUM(B$2:B26)</f>
+        <v>188.96244999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -905,8 +1005,12 @@
         <f t="shared" si="0"/>
         <v>8.4557280738564833E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f>SUM(B$2:B27)</f>
+        <v>193.72844999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -920,8 +1024,12 @@
         <f t="shared" si="0"/>
         <v>-0.24304840370751801</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f>SUM(B$2:B28)</f>
+        <v>197.61244999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -935,8 +1043,12 @@
         <f t="shared" si="0"/>
         <v>0.20273864643877448</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f>SUM(B$2:B29)</f>
+        <v>207.76344999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -950,8 +1062,12 @@
         <f t="shared" si="0"/>
         <v>0.10451977401129944</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f>SUM(B$2:B30)</f>
+        <v>210.94944999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -965,8 +1081,12 @@
         <f t="shared" si="0"/>
         <v>-2.6709279762584182E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f>SUM(B$2:B31)</f>
+        <v>219.71044999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -980,8 +1100,12 @@
         <f t="shared" si="0"/>
         <v>-9.4167252283907238E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f>SUM(B$2:B32)</f>
+        <v>228.24844999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -995,8 +1119,12 @@
         <f t="shared" si="0"/>
         <v>-0.15129870129870129</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f>SUM(B$2:B33)</f>
+        <v>232.86845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1010,8 +1138,12 @@
         <f t="shared" si="0"/>
         <v>-1.101379724055189E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f>SUM(B$2:B34)</f>
+        <v>241.20345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1024,6 +1156,10 @@
       <c r="D35">
         <f t="shared" si="0"/>
         <v>-0.14767616191904048</v>
+      </c>
+      <c r="F35">
+        <f>SUM(B$2:B35)</f>
+        <v>245.20545000000001</v>
       </c>
     </row>
   </sheetData>
